--- a/Box2dEnv/saves/BatchGenerator/Tuning BackupM1.xlsx
+++ b/Box2dEnv/saves/BatchGenerator/Tuning BackupM1.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genia\source\repos\Box2dEnv\Box2dEnv\saves\BatchGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57812BDC-1314-4206-ADB7-6C6B8619BA5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E246997-33FB-4591-B565-2BECDBA54E23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7896" yWindow="0" windowWidth="11436" windowHeight="8928" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reward" sheetId="1" r:id="rId1"/>
     <sheet name="LIFT" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -320,16 +319,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>178424</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>167944</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15952</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -359,8 +358,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3764280" y="1275704"/>
-          <a:ext cx="3802380" cy="3098480"/>
+          <a:off x="6195060" y="1275704"/>
+          <a:ext cx="1371600" cy="1117688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -836,7 +835,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Box2dEnv/saves/BatchGenerator/Tuning BackupM1.xlsx
+++ b/Box2dEnv/saves/BatchGenerator/Tuning BackupM1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genia\source\repos\Box2dEnv\Box2dEnv\saves\BatchGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E246997-33FB-4591-B565-2BECDBA54E23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78CEFAD-8ADD-47D6-BDC5-0322841EDAF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reward" sheetId="1" r:id="rId1"/>
@@ -259,22 +259,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>178424</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>62313</xdr:rowOff>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>121511</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8241D3F4-B58D-42BA-A6AD-1F74C4FD2D68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{598384ED-E2D1-47FD-8F2C-DD3BD1EA02D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -297,8 +297,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6088380" y="0"/>
-          <a:ext cx="1440180" cy="1159593"/>
+          <a:off x="6195060" y="1275704"/>
+          <a:ext cx="1501140" cy="1223247"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -319,23 +319,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>178424</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>15952</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>108985</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{598384ED-E2D1-47FD-8F2C-DD3BD1EA02D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D077F4-1827-4AE4-B8EA-B60D222DC0A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -358,8 +358,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6195060" y="1275704"/>
-          <a:ext cx="1371600" cy="1117688"/>
+          <a:off x="10911840" y="1226820"/>
+          <a:ext cx="1373905" cy="1135380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -380,23 +380,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>512845</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>72731</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D077F4-1827-4AE4-B8EA-B60D222DC0A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8241D3F4-B58D-42BA-A6AD-1F74C4FD2D68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -419,8 +419,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7658100" y="1280160"/>
-          <a:ext cx="1373905" cy="1135380"/>
+          <a:off x="6088380" y="0"/>
+          <a:ext cx="4632960" cy="3730331"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -834,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1258,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D93D159-F912-4572-B03E-DCD684DD2B67}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
